--- a/3_Semestre/proj/aula06/docs/Cronograma/excel_cronograma.xlsx
+++ b/3_Semestre/proj/aula06/docs/Cronograma/excel_cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrunoFavaro\Senai\3_Semestre\proj\aula06\docs\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27DDF17-9FC6-4FB8-B2F1-A1308DACA261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDBF5C2-5B5C-49CE-BEC2-AC3CF24D9C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0D78D96-960B-487E-983A-389DF052958B}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +123,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -315,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -334,6 +341,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,7 +364,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +681,7 @@
   <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,89 +690,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="20" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="22" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
     </row>
     <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="14">
         <v>15</v>
       </c>
@@ -860,11 +868,11 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
@@ -898,11 +906,11 @@
       <c r="AH4" s="1"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
@@ -936,11 +944,11 @@
       <c r="AH5" s="1"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
@@ -974,15 +982,15 @@
       <c r="AH6" s="1"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1012,16 +1020,16 @@
       <c r="AH7" s="3"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1050,20 +1058,20 @@
       <c r="AH8" s="3"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1088,11 +1096,11 @@
       <c r="AH9" s="3"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1100,9 +1108,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="3"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1126,11 +1134,11 @@
       <c r="AH10" s="3"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1139,8 +1147,8 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
@@ -1164,11 +1172,11 @@
       <c r="AH11" s="3"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1177,8 +1185,8 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1202,11 +1210,11 @@
       <c r="AH12" s="3"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1216,7 +1224,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1240,11 +1248,11 @@
       <c r="AH13" s="3"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1315,53 +1323,53 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="7"/>
-      <c r="T16" s="18" t="s">
+      <c r="T16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
       <c r="AH16" s="10"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
       <c r="AH17" s="10"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="4"/>
       <c r="AH18" s="10"/>
     </row>
